--- a/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florian\Desktop\itp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2533AA62-3B8A-47C5-86D9-1CE40CB8AC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48872C3F-DD70-4AA8-82A3-735AE4BE681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-24315" yWindow="4755" windowWidth="19200" windowHeight="9975" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>Transfer your estimate as well as your real effort from your planing tool to this protocol</t>
+  </si>
+  <si>
+    <t>Liu Yueting</t>
+  </si>
+  <si>
+    <t>Andak Kadir</t>
+  </si>
+  <si>
+    <t>Reithmaier Melanie</t>
+  </si>
+  <si>
+    <t>Sabic Kenan</t>
+  </si>
+  <si>
+    <t>Docsek Martin</t>
+  </si>
+  <si>
+    <t>GitHub intuitiver gestaltet &amp; vervollständigt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Alles hat gut geklappt, keine Probleme</t>
   </si>
 </sst>
 </file>
@@ -338,18 +362,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,60 +376,71 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,9 +460,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -471,7 +500,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -577,7 +606,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,169 +758,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="32.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.453125" style="2"/>
+    <col min="8" max="8" width="34.54296875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="17">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="29">
+        <v>45818</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="19">
+        <v>16</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,211 +962,221 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11">
+      <c r="B16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
         <f>D16-C16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2">
         <f t="shared" ref="E17:E25" si="0">D17-C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>7</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <f>COUNT(G16:G25)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Documents/3.Studium/1.Technikum/2.semester/7.IT_projekt/github/classmate_ITP/docs/Protokolle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48872C3F-DD70-4AA8-82A3-735AE4BE681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFDCE76-BB22-0A41-9D3F-F146306AD2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24315" yWindow="4755" windowWidth="19200" windowHeight="9975" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="8400" yWindow="760" windowWidth="33600" windowHeight="19340" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -126,15 +127,114 @@
   </si>
   <si>
     <t>Alles hat gut geklappt, keine Probleme</t>
+  </si>
+  <si>
+    <t>Retrospektive</t>
+  </si>
+  <si>
+    <t>Yueting</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Was war gut?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">
+Modularer Aufbau mit Feature-Modulen erhöhte Übersichtlichkeit und Wartbarkeit
+Einsatz von Standalone-Komponenten modern und zukunftssicher
+Saubere Trennung zwischen Frontend und Backend ermöglichte klare Verantwortlichkeiten
+Nutzung von Angular Routing mit Lazy Loading verbesserte Performance
+Schrittweise Migration reduzierte Risiko und erleichterte Tests
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Was war schlecht?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">
+Anfangs Probleme mit CLI-Befehlen und Pfad-Konfigurationen durch Standalone-Setup
+Fehlende klare Struktur am Projektstart erschwerte schnelles Vorankommen
+Manchmal fehlende Dokumentation erschwerte das Nachvollziehen der Architektur
+Umgang mit globalen Styles und Assets war anfänglich unklar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">
+Was hätte ich besser machen können?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">
+Früher eine klare Projektstruktur und Namenskonventionen festlegen
+Mehr Zeit für Planung der Routing- und Modularchitektur investieren
+Dokumentation und Kommentierung von Anfang an systematisch pflegen
+Regelmäßige Code-Reviews und Tests früher einführen
+</t>
+    </r>
+  </si>
+  <si>
+    <t>UC-004: Profil bearbeiten (Name, Foto, Profildaten) umsetzen</t>
+  </si>
+  <si>
+    <t>UC-005 &amp; UC-006: Lernaufgabe abschließen &amp; Punkte gutschreiben implementieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,6 +258,32 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,86 +488,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -758,47 +898,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.453125" style="2"/>
-    <col min="8" max="8" width="34.54296875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="2"/>
+    <col min="2" max="2" width="32.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="2"/>
+    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -809,134 +949,134 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="17">
+      <c r="B4" s="15"/>
+      <c r="C4" s="18">
         <v>6</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="29">
+      <c r="B5" s="17"/>
+      <c r="C5" s="20">
         <v>45818</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="19">
+      <c r="B6" s="17"/>
+      <c r="C6" s="21">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,11 +1102,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="7">
@@ -987,37 +1127,53 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17:E25" si="0">D17-C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -1032,7 +1188,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -1047,7 +1203,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -1062,7 +1218,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -1077,7 +1233,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1248,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1263,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1278,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
@@ -1144,19 +1300,23 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C10:G10"/>
@@ -1173,12 +1333,486 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E851CB0-56B8-1044-ACDF-1A0DDEE6FA17}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Documents/3.Studium/1.Technikum/2.semester/7.IT_projekt/github/classmate_ITP/docs/Protokolle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFDCE76-BB22-0A41-9D3F-F146306AD2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C4F41-2E3B-43D9-810B-7439A77F73BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="760" windowWidth="33600" windowHeight="19340" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -220,12 +220,72 @@
   <si>
     <t>UC-005 &amp; UC-006: Lernaufgabe abschließen &amp; Punkte gutschreiben implementieren</t>
   </si>
+  <si>
+    <t>Reithmaier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Retrospektive
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was lief gut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Issue-basierte Planung: User Stories und Tasks als Issues definiert und priorisiert
+Kanban-Board: GitHub Projects für Sprint-Planung und Übersicht implementiert
+Definition of Done: Klare Akzeptanzkriterien und Checklisten in Templates verankert
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Herausforderungen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Datenbankintegration pausiert: Entwicklung erst nach finalem Feedback möglich
+Feedback ausstehend: Rückmeldung von Prof. zum Datenbankschema fehlt
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +349,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -488,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,6 +573,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -523,12 +617,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,32 +644,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -898,47 +977,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="2"/>
-    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="2"/>
+    <col min="2" max="2" width="32.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.453125" style="2"/>
+    <col min="8" max="8" width="34.453125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.5" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -949,134 +1028,134 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="18">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26">
         <v>6</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="20">
+      <c r="C5" s="28">
         <v>45818</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="21">
+      <c r="C6" s="29">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" thickBot="1">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="31">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -1126,12 +1205,15 @@
       <c r="H16" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I16" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31">
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="7">
@@ -1144,17 +1226,17 @@
         <f t="shared" ref="E17:E25" si="0">D17-C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="46.5">
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="7">
@@ -1167,13 +1249,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -1188,7 +1270,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -1203,7 +1285,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -1218,7 +1300,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -1233,7 +1315,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1330,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1345,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1360,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
@@ -1300,24 +1382,19 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:G9"/>
@@ -1332,6 +1409,11 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1341,477 +1423,843 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E851CB0-56B8-1044-ACDF-1A0DDEE6FA17}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:16" ht="63" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" ht="78" customHeight="1">
+      <c r="A3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="39"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="39"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="39"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="39"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="39"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="39"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="39"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="39"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="39"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="39"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="39"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="39"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="39"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="39"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="39"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="39"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="39"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="39"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="39"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="39"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="39"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="39"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="39"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="39"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="39"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="39"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H46"/>
+    <mergeCell ref="I3:O46"/>
+    <mergeCell ref="I2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Documents/3.Studium/1.Technikum/2.semester/7.IT_projekt/github/classmate_ITP/docs/Protokolle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C4F41-2E3B-43D9-810B-7439A77F73BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08936BD-AE75-704E-B546-710594678264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -280,14 +280,24 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Liu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -558,109 +568,109 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -977,47 +987,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.453125" style="2"/>
-    <col min="8" max="8" width="34.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="2"/>
+    <col min="2" max="2" width="32.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="2"/>
+    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5" thickBot="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1028,134 +1038,134 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26">
+      <c r="B4" s="19"/>
+      <c r="C4" s="22">
         <v>6</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="28">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24">
         <v>45818</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="29">
+      <c r="B6" s="21"/>
+      <c r="C6" s="25">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="16" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="16" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="20" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31">
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -1205,11 +1215,11 @@
       <c r="H16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31">
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -1231,8 +1241,11 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="46.5">
+      <c r="I17" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -1254,8 +1267,11 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -1270,7 +1286,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -1285,7 +1301,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -1300,7 +1316,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -1315,7 +1331,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1346,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1361,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
@@ -1360,7 +1376,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
@@ -1382,19 +1398,25 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:G9"/>
@@ -1409,12 +1431,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1423,836 +1439,791 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E851CB0-56B8-1044-ACDF-1A0DDEE6FA17}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="63" customHeight="1">
+    <row r="1" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="38" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" ht="78" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="40" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="39"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="39"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="39"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="39"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="39"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="39"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="39"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="39"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="39"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="39"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="39"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="39"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="39"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="39"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="39"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="39"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="39"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="39"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="39"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="39"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="39"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="39"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="39"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="39"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="39"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="39"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="39"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="39"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="39"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="39"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="39"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="39"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueting/Documents/3.Studium/1.Technikum/2.semester/7.IT_projekt/github/classmate_ITP/docs/Protokolle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny\Desktop\classmate_ITP\classmate_ITP\docs\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08936BD-AE75-704E-B546-710594678264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE47EA0-40E0-485E-8577-873C2B451563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -283,12 +283,85 @@
   <si>
     <t>Liu</t>
   </si>
+  <si>
+    <t>Konzeption und Erstellung der Abzeichen Komponente</t>
+  </si>
+  <si>
+    <t>Bilder Sammlung für das Abzeichensystem</t>
+  </si>
+  <si>
+    <t>Kriterien für Abzeichensystem</t>
+  </si>
+  <si>
+    <t>Ebenfalls Recherche notwendig</t>
+  </si>
+  <si>
+    <t>Sabic</t>
+  </si>
+  <si>
+    <t>Etwas mehr Recherche notwendig als erwartet, viel verglichen mit ähnlichen Systemen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fortschritte beim Abzeichensystem unserer Gamification-Website. Ordnungsgemäße Strukturierung des Codes, Bilder-Sammlung und die genaue Definition der User-Story-Akzeptanzkriterien bearbeitet. Diese Basis ermöglicht uns in den kommenden Sprints eine noch gezieltere Weiterentwicklung.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was lief ganz gut?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Die Bilder für die Badges wurden zentral gesammelt und klar benannr.
+Der Code für das Abzeichensystem wurde strukturiert aufgebaut und ist gut nachvollziehbar.
+Für jede Story wurden klare „Wenn…, dann…“-Kriterien formuliert.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Was können wir nächstes Mal besser machen?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Die Struktur der Badge-Assets noch etwas besser dokumentieren, damit sich jedes Teammitglied perfekt auskennt.
+Die Akzeptanzkriterien im Planning gemeinsam durchgehen, um Missverständnisse oder doppelte Arbeit zu vermeiden.
+Eine einheitliche Struktur für Kriterien und Badge-Namen implementieren.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -592,6 +665,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,12 +708,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,27 +729,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,10 +744,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,9 +768,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -729,7 +808,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -835,7 +914,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -977,7 +1056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,49 +1064,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="2"/>
-    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="2"/>
+    <col min="2" max="2" width="32.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="34.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1038,134 +1117,134 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="22">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30">
         <v>6</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24">
+      <c r="B5" s="19"/>
+      <c r="C5" s="32">
         <v>45818</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="33">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="31.5">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -1219,7 +1298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="31.5">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -1241,11 +1320,11 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="47.25">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -1267,56 +1346,99 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="43">
+        <v>2</v>
+      </c>
+      <c r="D19" s="43">
+        <v>4</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
+      <c r="B20" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="15">
         <v>0</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="8">
         <v>6</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
+      <c r="B21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="15">
         <v>0</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -1331,7 +1453,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1468,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1483,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1498,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="6">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
@@ -1386,7 +1508,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f>SUM(E16:E25)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="6">
         <f>COUNT(F16:F25)</f>
@@ -1398,25 +1520,19 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:G9"/>
@@ -1431,6 +1547,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1439,799 +1561,1121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E851CB0-56B8-1044-ACDF-1A0DDEE6FA17}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:V46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="63" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:22" ht="15" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+    </row>
+    <row r="3" spans="1:22" ht="78" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H46"/>
     <mergeCell ref="I3:O46"/>
     <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="P3:V46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
+++ b/docs/Protokolle/Sprint_Review_Protocol_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny\Desktop\classmate_ITP\classmate_ITP\docs\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A9E5F-3D06-4FBC-B27E-BB84D031F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5EC6C2-8AF0-4A6B-BCB5-C93BEBE3C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -730,6 +730,33 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,12 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,41 +793,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
@@ -1141,28 +1141,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1">
       <c r="A3" s="5"/>
@@ -1176,131 +1176,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
         <v>6</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="29">
+      <c r="B5" s="23"/>
+      <c r="C5" s="36">
         <v>45818</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="30">
+      <c r="B6" s="23"/>
+      <c r="C6" s="37">
         <v>16</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
@@ -1602,12 +1602,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:G9"/>
@@ -1622,6 +1616,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E851CB0-56B8-1044-ACDF-1A0DDEE6FA17}">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H46"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:AC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1644,1415 +1644,1415 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="45" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
     </row>
     <row r="3" spans="1:29" ht="78" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="43" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="43" t="s">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
     </row>
     <row r="33" spans="1:29">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
     </row>
     <row r="34" spans="1:29">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
     </row>
     <row r="46" spans="1:29">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
